--- a/main.xlsx
+++ b/main.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Desktop\SK Chroustovice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916FE3C9-4E5F-481C-897D-95A8A1B34FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DB1E3-C8FA-4DB3-847C-FCB4BBBB27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
     <sheet name="Ceník" sheetId="9" r:id="rId2"/>
     <sheet name="Částka v kase" sheetId="6" r:id="rId3"/>
     <sheet name="Dluhy" sheetId="7" r:id="rId4"/>
-    <sheet name="Největší dlužník" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>Konflikt</t>
   </si>
@@ -96,9 +95,6 @@
     <t>Může být upraveno dle závažnosti</t>
   </si>
   <si>
-    <t>Lahvinka (zelená značka ideál) na oslavu úspěchu / kolečko panáků</t>
-  </si>
-  <si>
     <t>dle závažnosti určí pokladník a spoluhráči</t>
   </si>
   <si>
@@ -117,9 +113,6 @@
     <t>Název pokuty</t>
   </si>
   <si>
-    <t>100Kč - 500Kč</t>
-  </si>
-  <si>
     <t>Blbý kecy, lhaní, nekázeň, odmlouvání</t>
   </si>
   <si>
@@ -153,9 +146,6 @@
     <t>Jméno</t>
   </si>
   <si>
-    <t>Přijmení</t>
-  </si>
-  <si>
     <t>Věk</t>
   </si>
   <si>
@@ -255,12 +245,6 @@
     <t>Dluh</t>
   </si>
   <si>
-    <t>Největší aktuální žid</t>
-  </si>
-  <si>
-    <t>Momentální částka v kase</t>
-  </si>
-  <si>
     <t>Zapomenuté sportovní  pomůcky (kopačky,chrániče,boty na běhání apod.)</t>
   </si>
   <si>
@@ -370,15 +354,20 @@
   </si>
   <si>
     <t>placeholder.jpg</t>
+  </si>
+  <si>
+    <t>Brychny býval vycházející fotbalová hvězdu, bohužel jeho kariéru, jak už to bývá zničily drogy, alkohol a to že pochází ze Smrčku</t>
+  </si>
+  <si>
+    <t>Lahvinka na oslavu úspěchu / kolečko panáků</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;Kč&quot;_-;\-* #,##0\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;Kč&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -446,13 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,10 +455,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,33 +764,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>25</v>
@@ -812,15 +802,15 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>22</v>
@@ -832,32 +822,35 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
       </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>36</v>
@@ -869,15 +862,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -885,19 +878,22 @@
       <c r="D6" s="1">
         <v>16</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>31</v>
@@ -909,32 +905,35 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
       </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
@@ -946,15 +945,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1">
         <v>22</v>
@@ -966,32 +965,35 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1">
         <v>19</v>
       </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>16</v>
@@ -1003,32 +1005,35 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
       </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
         <v>43</v>
@@ -1040,15 +1045,15 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>338</v>
@@ -1060,32 +1065,35 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>17</v>
       </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>21</v>
@@ -1097,15 +1105,15 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
         <v>32</v>
@@ -1117,49 +1125,55 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <v>26</v>
       </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
       <c r="F19" s="1">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
         <v>42</v>
       </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
         <v>29</v>
@@ -1171,32 +1185,35 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1">
         <v>24</v>
       </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1">
         <v>19</v>
@@ -1208,15 +1225,15 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>18</v>
@@ -1225,15 +1242,15 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
         <v>16</v>
@@ -1242,15 +1259,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1">
         <v>21</v>
@@ -1259,15 +1276,15 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>18</v>
@@ -1279,15 +1296,15 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1">
         <v>23</v>
@@ -1299,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1">
         <v>338</v>
@@ -1316,27 +1333,30 @@
         <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1">
         <v>47</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1348,273 +1368,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A37" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="10">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B20" s="10">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B27" s="10">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2">
-        <v>80</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <v>100</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>100</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
-        <v>200</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>100</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2">
-        <v>150</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,31 +1645,28 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>72</v>
+      <c r="A1" s="8">
+        <v>1600</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1600</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1660,294 +1676,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="5">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="5">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="5">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="5">
+        <v>76</v>
+      </c>
+      <c r="B5" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="5">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="5">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="5">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="5">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="5">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="5">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="5">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="5">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="5">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="5">
+        <v>86</v>
+      </c>
+      <c r="B15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="5">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="5">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="5">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="5">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="5">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="5">
+        <v>93</v>
+      </c>
+      <c r="B22" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="5">
+        <v>94</v>
+      </c>
+      <c r="B23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="5">
+        <v>95</v>
+      </c>
+      <c r="B24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="5">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="5">
+        <v>97</v>
+      </c>
+      <c r="B26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="5">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="5">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4E6EA3-306A-4E54-AA3C-4A7D31351857}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>INDEX(Dluhy!A:A,MATCH('Největší dlužník'!C3,Dluhy!B:B,0))</f>
-        <v>Bronislav Branda</v>
-      </c>
-      <c r="B3" s="1" t="e">
-        <f>INDEX(Dluhy!#REF!,MATCH('Největší dlužník'!C3,Dluhy!B:B,0))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="1">
-        <f>MAX(Dluhy!B:B)</f>
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DB1E3-C8FA-4DB3-847C-FCB4BBBB27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92B86A3-D093-4ED7-8CB2-3701951540BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Konflikt</t>
   </si>
@@ -356,10 +356,13 @@
     <t>placeholder.jpg</t>
   </si>
   <si>
-    <t>Brychny býval vycházející fotbalová hvězdu, bohužel jeho kariéru, jak už to bývá zničily drogy, alkohol a to že pochází ze Smrčku</t>
-  </si>
-  <si>
     <t>Lahvinka na oslavu úspěchu / kolečko panáků</t>
+  </si>
+  <si>
+    <t>Brychny býval vycházející fotbalová hvězda, bohužel jeho kariéru, jak už to bývá zničily drogy, alkohol a to že pochází ze Smrčku</t>
+  </si>
+  <si>
+    <t>Komár, nebo taky Gandalf, je už tu pěkný stovky let. Za svůj život právě on vymyslel fotbal a pak ho učil hrát Maradonu.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;Kč&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Kč&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -446,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,14 +458,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +761,7 @@
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="115.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -1061,6 +1064,9 @@
       <c r="D15" s="1">
         <v>9</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -1331,6 +1337,9 @@
       </c>
       <c r="D29" s="1">
         <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>103</v>
@@ -1402,7 +1411,7 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>20</v>
       </c>
       <c r="C3" s="3"/>
@@ -1411,7 +1420,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>40</v>
       </c>
       <c r="C4" s="3"/>
@@ -1420,7 +1429,7 @@
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>50</v>
       </c>
       <c r="C5" s="3"/>
@@ -1429,7 +1438,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>60</v>
       </c>
       <c r="C6" s="3"/>
@@ -1438,7 +1447,7 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>100</v>
       </c>
       <c r="C7" s="3"/>
@@ -1447,7 +1456,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
       <c r="C8" s="3"/>
@@ -1456,7 +1465,7 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1467,7 +1476,7 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>80</v>
       </c>
       <c r="C10" s="3"/>
@@ -1476,7 +1485,7 @@
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>60</v>
       </c>
       <c r="C11" s="3"/>
@@ -1485,7 +1494,7 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>50</v>
       </c>
       <c r="C12" s="3"/>
@@ -1494,7 +1503,7 @@
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>50</v>
       </c>
       <c r="C13" s="3"/>
@@ -1503,7 +1512,7 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>50</v>
       </c>
       <c r="C14" s="3"/>
@@ -1512,7 +1521,7 @@
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1523,7 +1532,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>100</v>
       </c>
       <c r="C16" s="3"/>
@@ -1532,7 +1541,7 @@
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>100</v>
       </c>
       <c r="C17" s="3"/>
@@ -1541,7 +1550,7 @@
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1552,7 +1561,7 @@
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>200</v>
       </c>
       <c r="C19" s="3"/>
@@ -1561,7 +1570,7 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>20</v>
       </c>
       <c r="C20" s="3"/>
@@ -1570,7 +1579,7 @@
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>200</v>
       </c>
       <c r="C21" s="3"/>
@@ -1579,7 +1588,7 @@
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>100</v>
       </c>
       <c r="C22" s="3"/>
@@ -1588,7 +1597,7 @@
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>100</v>
       </c>
       <c r="C23" s="3"/>
@@ -1608,18 +1617,18 @@
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1630,7 +1639,7 @@
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>30</v>
       </c>
       <c r="C27" s="3"/>
@@ -1651,18 +1660,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+      <c r="A1" s="10">
         <v>1600</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1676,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92B86A3-D093-4ED7-8CB2-3701951540BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A30A72-9E71-41D8-8085-9EE88182624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
   <si>
     <t>Konflikt</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Číslo dresu</t>
   </si>
   <si>
-    <t>Popis</t>
-  </si>
-  <si>
     <t>Počet gólů za sezónu</t>
   </si>
   <si>
@@ -359,10 +356,97 @@
     <t>Lahvinka na oslavu úspěchu / kolečko panáků</t>
   </si>
   <si>
-    <t>Brychny býval vycházející fotbalová hvězda, bohužel jeho kariéru, jak už to bývá zničily drogy, alkohol a to že pochází ze Smrčku</t>
-  </si>
-  <si>
-    <t>Komár, nebo taky Gandalf, je už tu pěkný stovky let. Za svůj život právě on vymyslel fotbal a pak ho učil hrát Maradonu.</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ŽK</t>
+  </si>
+  <si>
+    <t>ČK</t>
+  </si>
+  <si>
+    <t>Minuty</t>
+  </si>
+  <si>
+    <t>00030080</t>
+  </si>
+  <si>
+    <t>Počet zápasů</t>
+  </si>
+  <si>
+    <t>03010670</t>
+  </si>
+  <si>
+    <t>07050426</t>
+  </si>
+  <si>
+    <t>88041767</t>
+  </si>
+  <si>
+    <t>04030081</t>
+  </si>
+  <si>
+    <t>93072089</t>
+  </si>
+  <si>
+    <t>93051969</t>
+  </si>
+  <si>
+    <t>04120789</t>
+  </si>
+  <si>
+    <t>02061042</t>
+  </si>
+  <si>
+    <t>05120264</t>
+  </si>
+  <si>
+    <t>08110512</t>
+  </si>
+  <si>
+    <t>81040965</t>
+  </si>
+  <si>
+    <t>89060108</t>
+  </si>
+  <si>
+    <t>07080328</t>
+  </si>
+  <si>
+    <t>03120203</t>
+  </si>
+  <si>
+    <t>93020881</t>
+  </si>
+  <si>
+    <t>98070375</t>
+  </si>
+  <si>
+    <t>83031686</t>
+  </si>
+  <si>
+    <t>95100823</t>
+  </si>
+  <si>
+    <t>05050356</t>
+  </si>
+  <si>
+    <t>06100227</t>
+  </si>
+  <si>
+    <t>08050141</t>
+  </si>
+  <si>
+    <t>04030295</t>
+  </si>
+  <si>
+    <t>06110200</t>
+  </si>
+  <si>
+    <t>01040728</t>
+  </si>
+  <si>
+    <t>08110513</t>
   </si>
 </sst>
 </file>
@@ -438,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +547,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -749,627 +836,1031 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>23020325</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="1">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D27" s="1">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>338</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="1">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="1">
-        <v>338</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="1">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="1">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="1">
-        <v>338</v>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="1">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="1">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
+      <c r="H29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1381,14 +1872,14 @@
       <selection activeCell="A37" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1907,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1425,16 +1916,16 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9">
         <v>50</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1934,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1943,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1952,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1972,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1981,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1499,7 +1990,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1999,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +2008,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +2028,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1546,7 +2037,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +2057,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +2066,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +2075,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +2084,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +2093,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +2104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1621,10 +2112,10 @@
         <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1653,21 +2144,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677003C-29EC-4961-822C-3C1534E5601A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10">
-        <v>1600</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11">
+        <v>1660</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1689,231 +2180,231 @@
       <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="11.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="B3" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B5" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="B14" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B22" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="B28" s="4">
         <v>50</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A30A72-9E71-41D8-8085-9EE88182624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C339636-DE83-4087-AE75-95D78D63C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
-    <sheet name="Ceník" sheetId="9" r:id="rId2"/>
-    <sheet name="Částka v kase" sheetId="6" r:id="rId3"/>
-    <sheet name="Dluhy" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="Ceník" sheetId="9" r:id="rId3"/>
+    <sheet name="Částka v kase" sheetId="6" r:id="rId4"/>
+    <sheet name="Dluhy" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
   <si>
     <t>Konflikt</t>
   </si>
@@ -350,9 +351,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>placeholder.jpg</t>
-  </si>
-  <si>
     <t>Lahvinka na oslavu úspěchu / kolečko panáků</t>
   </si>
   <si>
@@ -447,6 +445,147 @@
   </si>
   <si>
     <t>08110513</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Bečička</t>
+  </si>
+  <si>
+    <t>Chroustovice</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Besperát</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Bronislav</t>
+  </si>
+  <si>
+    <t>Branda</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Brychnáč</t>
+  </si>
+  <si>
+    <t>Ondřej</t>
+  </si>
+  <si>
+    <t>Černík</t>
+  </si>
+  <si>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>Derka</t>
+  </si>
+  <si>
+    <t>Dlouhý</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Dostál</t>
+  </si>
+  <si>
+    <t>Matěj</t>
+  </si>
+  <si>
+    <t>Dvořák</t>
+  </si>
+  <si>
+    <t>Štěpán</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Lukáš</t>
+  </si>
+  <si>
+    <t>Komárek</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Pavlíček</t>
+  </si>
+  <si>
+    <t>Tomáš</t>
+  </si>
+  <si>
+    <t>Pekárek</t>
+  </si>
+  <si>
+    <t>Pertlík</t>
+  </si>
+  <si>
+    <t>Pospíšil</t>
+  </si>
+  <si>
+    <t>Radek</t>
+  </si>
+  <si>
+    <t>Prorok</t>
+  </si>
+  <si>
+    <t>Rejman</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Šotola</t>
+  </si>
+  <si>
+    <t>Tégl</t>
+  </si>
+  <si>
+    <t>Tesař</t>
+  </si>
+  <si>
+    <t>Matyáš</t>
+  </si>
+  <si>
+    <t>Tuček</t>
+  </si>
+  <si>
+    <t>Vašíček</t>
+  </si>
+  <si>
+    <t>Tadeáš</t>
+  </si>
+  <si>
+    <t>Vondráček</t>
+  </si>
+  <si>
+    <t>Bořek</t>
+  </si>
+  <si>
+    <t>Vopařil</t>
+  </si>
+  <si>
+    <t>Matyáš Vašíček</t>
+  </si>
+  <si>
+    <t>03100252</t>
+  </si>
+  <si>
+    <t>Vasicek.jpg</t>
+  </si>
+  <si>
+    <t>BesperatR.jpg</t>
   </si>
 </sst>
 </file>
@@ -457,7 +596,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;Kč&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,16 +628,37 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF151515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1CFDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -517,12 +677,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBCC9D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2DBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2DBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBCC9D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2DBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,9 +747,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +1074,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
@@ -878,21 +1095,21 @@
         <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>72</v>
@@ -910,10 +1127,10 @@
         <v>39</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -922,12 +1139,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1182</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
@@ -948,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -957,12 +1174,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1286</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>74</v>
@@ -997,7 +1214,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>75</v>
@@ -1018,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1027,12 +1244,12 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>92</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>76</v>
@@ -1053,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1062,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>814</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>77</v>
@@ -1088,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1097,12 +1314,12 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>322</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>78</v>
@@ -1137,7 +1354,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>79</v>
@@ -1158,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1167,12 +1384,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>770</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>80</v>
@@ -1193,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1202,12 +1419,12 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1016</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>81</v>
@@ -1242,7 +1459,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>82</v>
@@ -1263,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1272,12 +1489,12 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>83</v>
@@ -1312,7 +1529,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>84</v>
@@ -1333,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1342,12 +1559,12 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1177</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
@@ -1382,7 +1599,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>87</v>
@@ -1403,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
@@ -1412,12 +1629,12 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>900</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
@@ -1452,7 +1669,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>89</v>
@@ -1470,10 +1687,10 @@
         <v>59</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1482,12 +1699,12 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1040</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>90</v>
@@ -1522,7 +1739,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -1592,7 +1809,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>93</v>
@@ -1613,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -1622,12 +1839,12 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>939</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>94</v>
@@ -1659,7 +1876,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
@@ -1691,7 +1908,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -1723,28 +1940,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="1">
-        <v>18</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1753,108 +1967,143 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>673</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="1">
-        <v>338</v>
-      </c>
-      <c r="E28" s="1">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="1">
+        <v>338</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
         <v>47</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1865,10 +2114,870 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D3959C-125B-43A5-B780-4E72F542F120}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12">
+        <v>30080</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="14">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14">
+        <v>0</v>
+      </c>
+      <c r="I1" s="15">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>3010670</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>7050426</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>88041767</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>4030081</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>93072089</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>93051969</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="14">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>4120789</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2061042</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="14">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>5120264</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>8110512</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>8110513</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>81040965</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="14">
+        <v>6</v>
+      </c>
+      <c r="F13" s="14">
+        <v>14</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>89061018</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>7080323</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>3120520</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>93020881</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>98070375</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="14">
+        <v>9</v>
+      </c>
+      <c r="F18" s="14">
+        <v>13</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>83031686</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>96120545</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>95100823</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>5050356</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>13</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>6100227</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>8050141</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>4030295</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>3100252</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>6110200</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>1040728</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>9</v>
+      </c>
+      <c r="G28" s="18">
+        <v>2</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=4a702cd8-d80f-4617-bc1b-a1a5e51b8879" xr:uid="{927FF509-4BD8-4469-AB7C-007157E8C6BB}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=afff74b8-f5a1-4a56-8581-7d31d2dad92c" xr:uid="{15600134-D52C-4B02-9D89-4F960554A52C}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=7ff02e05-e290-4dcb-b120-7ec1935fc973" xr:uid="{F91828D8-A5AC-43AE-9829-43559B7B6BF0}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c5fd4867-5968-49d3-93c5-b6bda10be610" xr:uid="{5809D8FE-47D5-44F7-8778-59001EC8B22C}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=b0fabb78-9b73-423e-af5d-b3756a5e7fd6" xr:uid="{3DCF7D4A-9145-4A65-980D-A1C7574F3B35}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=396d586e-1b7c-4164-9450-ef22c78c6f8f" xr:uid="{654F8BAF-9308-4387-A04E-7D678642238E}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=d7ce12b1-c434-4c28-9311-0d29bf8b6030" xr:uid="{668DC4B0-40FD-471D-9D88-75E4393141A9}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=30b6865c-6877-4ad4-8d40-e2624433f91b" xr:uid="{073BB763-BB53-457F-A56F-2584B6F05EFF}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c3dc403d-cd43-4044-adec-01484fe4e7bf" xr:uid="{CDF1062F-1F75-4B9F-A999-FD7B0666FD2F}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=94366b14-1933-425c-92cf-2e73deef4b10" xr:uid="{C156AD2B-42A4-416A-845E-F35762714E6C}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=b6f0d7a3-0795-4d8f-872d-21e258c46e8f" xr:uid="{A7E20052-9D0D-4216-B0C9-3FC467173384}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=41632b61-32fa-4c5c-830a-a4d17cd1d47f" xr:uid="{DFDDFA89-F74C-4615-AE59-63A9D7D211B1}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=5b4c04c9-703d-4734-b116-499362adfcca" xr:uid="{ADB4B76C-AE4E-4325-ADAD-5F2E5B94F20B}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=11e39ea9-915e-4fb8-859c-9c7318522e49" xr:uid="{05FD70A6-4084-431E-9FFB-2807952D29DD}"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c67a0f9f-fb5b-464f-9b1d-96771b27bfa1" xr:uid="{5483BC6B-E3D0-409C-8623-9355EBBDE970}"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=0d5be422-b2e2-48ce-b08e-942453c653eb" xr:uid="{85B2D098-D4C7-44D7-9CBF-EDB4E8A32304}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=e72c483b-e47d-4c72-afb0-4539ed5097d2" xr:uid="{4938062A-A6E5-4385-9323-F13ACA289FC9}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c42ec22f-4c46-4004-8734-2e402c239211" xr:uid="{EE88AB12-8268-4E75-BFE1-40F82B927E82}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=dcdac96d-05e9-48c0-bf4e-17bd69a31f0e" xr:uid="{02DCACC7-CBFA-4529-82A0-A66FD5DE0A9E}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=3870c947-e81e-474b-bc88-465782cbf173" xr:uid="{85E169C8-FBA7-487A-9AC4-4618DCD91216}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=404fb0a9-38d4-4d95-84fa-2f17285b97da" xr:uid="{D606F3E6-D111-407D-B791-4A118B128760}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=8552fe7f-e3fd-407b-8f89-d7cfc03ee882" xr:uid="{68FA3257-E709-4A1B-9DDF-F82B7FE0D913}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=09f38f8f-0eb7-4232-907f-de64f95f6839" xr:uid="{29A50D03-0577-497D-9B00-05C2E709E86E}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=3a1e5348-c3e5-4c09-8a67-45ab06b2b8f5" xr:uid="{D989FA51-FBEE-4A1D-B767-A143ABD0390E}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=66b3e702-d6a4-4e2f-a2a6-d6dbc0d88c22" xr:uid="{FF2B0D7B-38D6-47B3-AF84-CCBC7391F143}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=ed6231bb-ece5-4841-9e03-60a83e018155" xr:uid="{9DB32155-0E8B-46FC-835C-9919CD4B4BCE}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c5d2d137-e709-4072-838e-ff1159d2be25" xr:uid="{074A317B-1F05-44C4-8580-E573710DC4A4}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=0279a281-5037-440c-8dee-5555baf48c08" xr:uid="{FE74F891-73D1-43B4-8FC4-3C70DB3B6038}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A37" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
@@ -2112,7 +3221,7 @@
         <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2140,11 +3249,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677003C-29EC-4961-822C-3C1534E5601A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2172,17 +3281,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2223,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2255,7 +3364,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2263,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2295,7 +3404,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="4">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2303,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2327,7 +3436,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,7 +3468,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2367,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2391,23 +3500,31 @@
         <v>96</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B27" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="4">
-        <v>50</v>
+      <c r="B29" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C339636-DE83-4087-AE75-95D78D63C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591216C0-8072-4DB5-83B3-E53F44EA1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
   <si>
     <t>Konflikt</t>
   </si>
@@ -405,15 +405,6 @@
     <t>81040965</t>
   </si>
   <si>
-    <t>89060108</t>
-  </si>
-  <si>
-    <t>07080328</t>
-  </si>
-  <si>
-    <t>03120203</t>
-  </si>
-  <si>
     <t>93020881</t>
   </si>
   <si>
@@ -586,6 +577,30 @@
   </si>
   <si>
     <t>BesperatR.jpg</t>
+  </si>
+  <si>
+    <t>Příjmení</t>
+  </si>
+  <si>
+    <t>Tým</t>
+  </si>
+  <si>
+    <t>Góly</t>
+  </si>
+  <si>
+    <t>Záp.</t>
+  </si>
+  <si>
+    <t>89061018</t>
+  </si>
+  <si>
+    <t>07080323</t>
+  </si>
+  <si>
+    <t>03120520</t>
+  </si>
+  <si>
+    <t>96120545</t>
   </si>
 </sst>
 </file>
@@ -714,7 +729,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,12 +759,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -757,9 +766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,6 +777,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1055,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,19 +1143,24 @@
         <v>39</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,5,0),"-")</f>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>15</v>
+        <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,6,0),"-")</f>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
-        <v>4</v>
+        <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,7,0),"-")</f>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
+        <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1273</v>
+        <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,9,0),"-")</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1162,19 +1183,24 @@
         <v>40</v>
       </c>
       <c r="G3" s="1">
+        <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,6,0),"-")</f>
+        <v>17</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,7,0),"-")</f>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
+        <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1377</v>
+        <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,9,0),"-")</f>
+        <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1197,19 +1223,24 @@
         <v>41</v>
       </c>
       <c r="G4" s="1">
+        <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,5,0),"-")</f>
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,6,0),"-")</f>
+        <v>4</v>
       </c>
       <c r="I4" s="1">
+        <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J4" s="1">
+        <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56</v>
+        <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,9,0),"-")</f>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1232,19 +1263,24 @@
         <v>43</v>
       </c>
       <c r="G5" s="1">
+        <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,6,0),"-")</f>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
+        <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J5" s="1">
+        <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>183</v>
+        <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,9,0),"-")</f>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1267,19 +1303,24 @@
         <v>46</v>
       </c>
       <c r="G6" s="1">
+        <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,5,0),"-")</f>
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>11</v>
+        <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,6,0),"-")</f>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,7,0),"-")</f>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
+        <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>905</v>
+        <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,9,0),"-")</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1302,19 +1343,24 @@
         <v>47</v>
       </c>
       <c r="G7" s="1">
+        <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,5,0),"-")</f>
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>6</v>
+        <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,6,0),"-")</f>
+        <v>7</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,7,0),"-")</f>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
+        <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>403</v>
+        <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,9,0),"-")</f>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1337,18 +1383,23 @@
         <v>48</v>
       </c>
       <c r="G8" s="1">
+        <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,5,0),"-")</f>
         <v>7</v>
       </c>
       <c r="H8" s="1">
+        <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,6,0),"-")</f>
         <v>11</v>
       </c>
       <c r="I8" s="1">
+        <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J8" s="1">
+        <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K8" s="1">
+        <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,9,0),"-")</f>
         <v>849</v>
       </c>
     </row>
@@ -1372,19 +1423,24 @@
         <v>49</v>
       </c>
       <c r="G9" s="1">
+        <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,5,0),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,6,0),"-")</f>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,7,0),"-")</f>
         <v>1</v>
       </c>
-      <c r="H9" s="1">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
       <c r="J9" s="1">
+        <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>861</v>
+        <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,9,0),"-")</f>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1407,19 +1463,24 @@
         <v>50</v>
       </c>
       <c r="G10" s="1">
+        <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,5,0),"-")</f>
         <v>6</v>
       </c>
       <c r="H10" s="1">
-        <v>14</v>
+        <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,6,0),"-")</f>
+        <v>15</v>
       </c>
       <c r="I10" s="1">
+        <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J10" s="1">
+        <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1076</v>
+        <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,9,0),"-")</f>
+        <v>1167</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1442,18 +1503,23 @@
         <v>51</v>
       </c>
       <c r="G11" s="1">
+        <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,6,0),"-")</f>
         <v>1</v>
       </c>
       <c r="I11" s="1">
+        <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J11" s="1">
+        <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K11" s="1">
+        <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,9,0),"-")</f>
         <v>21</v>
       </c>
     </row>
@@ -1477,24 +1543,29 @@
         <v>52</v>
       </c>
       <c r="G12" s="1">
+        <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,6,0),"-")</f>
+        <v>6</v>
       </c>
       <c r="I12" s="1">
+        <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J12" s="1">
+        <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>164</v>
+        <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,9,0),"-")</f>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>83</v>
@@ -1512,19 +1583,24 @@
         <v>53</v>
       </c>
       <c r="G13" s="1">
+        <f>IFERROR( VLOOKUP(A13,Sheet1!A:I,5,0),"-")</f>
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>6</v>
+        <f>IFERROR( VLOOKUP(A13,Sheet1!A:I,6,0),"-")</f>
+        <v>7</v>
       </c>
       <c r="I13" s="1">
+        <f>IFERROR( VLOOKUP(A13,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J13" s="1">
+        <f>IFERROR( VLOOKUP(A13,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>98</v>
+        <f>IFERROR( VLOOKUP(A13,Sheet1!A:I,9,0),"-")</f>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1547,24 +1623,29 @@
         <v>54</v>
       </c>
       <c r="G14" s="1">
+        <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,5,0),"-")</f>
         <v>6</v>
       </c>
       <c r="H14" s="1">
-        <v>14</v>
+        <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,6,0),"-")</f>
+        <v>16</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,7,0),"-")</f>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
+        <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1268</v>
+        <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,9,0),"-")</f>
+        <v>1454</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
@@ -1582,24 +1663,29 @@
         <v>58</v>
       </c>
       <c r="G15" s="1">
+        <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,6,0),"-")</f>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J15" s="1">
+        <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>154</v>
+        <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,9,0),"-")</f>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>87</v>
@@ -1617,24 +1703,29 @@
         <v>57</v>
       </c>
       <c r="G16" s="1">
+        <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,5,0),"-")</f>
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>13</v>
+        <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,6,0),"-")</f>
+        <v>15</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,7,0),"-")</f>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
+        <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>971</v>
+        <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,9,0),"-")</f>
+        <v>1137</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>88</v>
@@ -1652,24 +1743,29 @@
         <v>56</v>
       </c>
       <c r="G17" s="1">
+        <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,6,0),"-")</f>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
+        <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J17" s="1">
+        <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>32</v>
+        <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,9,0),"-")</f>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>89</v>
@@ -1687,24 +1783,29 @@
         <v>59</v>
       </c>
       <c r="G18" s="1">
-        <v>9</v>
+        <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,5,0),"-")</f>
+        <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>13</v>
+        <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,6,0),"-")</f>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,7,0),"-")</f>
+        <v>3</v>
       </c>
       <c r="J18" s="1">
+        <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1131</v>
+        <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,9,0),"-")</f>
+        <v>1234</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>90</v>
@@ -1722,24 +1823,29 @@
         <v>60</v>
       </c>
       <c r="G19" s="1">
+        <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>13</v>
+        <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,6,0),"-")</f>
+        <v>15</v>
       </c>
       <c r="I19" s="1">
+        <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J19" s="1">
+        <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1194</v>
+        <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,9,0),"-")</f>
+        <v>1334</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -1757,18 +1863,23 @@
         <v>44</v>
       </c>
       <c r="G20" s="1">
+        <f>IFERROR( VLOOKUP(A20,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H20" s="1">
+        <f>IFERROR( VLOOKUP(A20,Sheet1!A:I,6,0),"-")</f>
         <v>10</v>
       </c>
       <c r="I20" s="1">
+        <f>IFERROR( VLOOKUP(A20,Sheet1!A:I,7,0),"-")</f>
         <v>3</v>
       </c>
       <c r="J20" s="1">
+        <f>IFERROR( VLOOKUP(A20,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K20" s="1">
+        <f>IFERROR( VLOOKUP(A20,Sheet1!A:I,9,0),"-")</f>
         <v>832</v>
       </c>
     </row>
@@ -1791,25 +1902,30 @@
       <c r="F21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
+      <c r="G21" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A21,Sheet1!A:I,5,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A21,Sheet1!A:I,6,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A21,Sheet1!A:I,7,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A21,Sheet1!A:I,8,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A21,Sheet1!A:I,9,0),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>93</v>
@@ -1827,24 +1943,29 @@
         <v>61</v>
       </c>
       <c r="G22" s="1">
+        <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>13</v>
+        <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,6,0),"-")</f>
+        <v>15</v>
       </c>
       <c r="I22" s="1">
+        <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,7,0),"-")</f>
         <v>3</v>
       </c>
       <c r="J22" s="1">
+        <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1030</v>
+        <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,9,0),"-")</f>
+        <v>1216</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>94</v>
@@ -1859,24 +1980,29 @@
         <v>62</v>
       </c>
       <c r="G23" s="1">
+        <f>IFERROR( VLOOKUP(A23,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H23" s="1">
+        <f>IFERROR( VLOOKUP(A23,Sheet1!A:I,6,0),"-")</f>
         <v>2</v>
       </c>
       <c r="I23" s="1">
+        <f>IFERROR( VLOOKUP(A23,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J23" s="1">
+        <f>IFERROR( VLOOKUP(A23,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K23" s="1">
+        <f>IFERROR( VLOOKUP(A23,Sheet1!A:I,9,0),"-")</f>
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
@@ -1891,24 +2017,29 @@
         <v>63</v>
       </c>
       <c r="G24" s="1">
+        <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,5,0),"-")</f>
         <v>1</v>
       </c>
       <c r="H24" s="1">
+        <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,6,0),"-")</f>
         <v>5</v>
       </c>
       <c r="I24" s="1">
+        <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J24" s="1">
+        <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K24" s="1">
+        <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,9,0),"-")</f>
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>96</v>
@@ -1923,27 +2054,32 @@
         <v>64</v>
       </c>
       <c r="G25" s="1">
+        <f>IFERROR( VLOOKUP(A25,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H25" s="1">
+        <f>IFERROR( VLOOKUP(A25,Sheet1!A:I,6,0),"-")</f>
         <v>1</v>
       </c>
       <c r="I25" s="1">
+        <f>IFERROR( VLOOKUP(A25,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J25" s="1">
+        <f>IFERROR( VLOOKUP(A25,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K25" s="1">
+        <f>IFERROR( VLOOKUP(A25,Sheet1!A:I,9,0),"-")</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>69</v>
@@ -1952,27 +2088,32 @@
         <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="1">
+        <f>IFERROR( VLOOKUP(A26,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <f>IFERROR( VLOOKUP(A26,Sheet1!A:I,6,0),"-")</f>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
+        <f>IFERROR( VLOOKUP(A26,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J26" s="1">
+        <f>IFERROR( VLOOKUP(A26,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20</v>
+        <f>IFERROR( VLOOKUP(A26,Sheet1!A:I,9,0),"-")</f>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>97</v>
@@ -1990,24 +2131,29 @@
         <v>65</v>
       </c>
       <c r="G27" s="1">
+        <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H27" s="1">
+        <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,6,0),"-")</f>
         <v>2</v>
       </c>
       <c r="I27" s="1">
+        <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J27" s="1">
+        <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K27" s="1">
+        <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,9,0),"-")</f>
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>98</v>
@@ -2025,24 +2171,29 @@
         <v>45</v>
       </c>
       <c r="G28" s="1">
+        <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>9</v>
+        <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,6,0),"-")</f>
+        <v>11</v>
       </c>
       <c r="I28" s="1">
+        <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,7,0),"-")</f>
         <v>2</v>
       </c>
       <c r="J28" s="1">
+        <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>673</v>
+        <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,9,0),"-")</f>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>85</v>
@@ -2060,19 +2211,24 @@
         <v>55</v>
       </c>
       <c r="G29" s="1">
+        <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,5,0),"-")</f>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,6,0),"-")</f>
+        <v>4</v>
       </c>
       <c r="I29" s="1">
+        <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,7,0),"-")</f>
         <v>0</v>
       </c>
       <c r="J29" s="1">
+        <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,8,0),"-")</f>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>102</v>
+        <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,9,0),"-")</f>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2089,22 +2245,27 @@
         <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A30,Sheet1!A:I,5,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A30,Sheet1!A:I,6,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A30,Sheet1!A:I,7,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A30,Sheet1!A:I,8,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f>IFERROR( VLOOKUP(A30,Sheet1!A:I,9,0),"-")</f>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -2115,860 +2276,859 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D3959C-125B-43A5-B780-4E72F542F120}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:I14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12">
-        <v>30080</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="12">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>17</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="14">
+      <c r="C4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="12">
         <v>6</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F10" s="12">
         <v>15</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
         <v>4</v>
       </c>
-      <c r="H1" s="14">
-        <v>0</v>
-      </c>
-      <c r="I1" s="15">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>3010670</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="C18" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>3</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" s="12">
         <v>15</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G19" s="12">
+        <v>3</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>10</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
         <v>2</v>
       </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>7050426</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="14">
+      <c r="C25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
-        <v>3</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>88041767</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F25" s="12">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
         <v>142</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+    </row>
+    <row r="26" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>4030081</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="14">
+    </row>
+    <row r="27" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>11</v>
       </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>93072089</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>93051969</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="14">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14">
-        <v>11</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>4120789</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>11</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2061042</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="14">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>5120264</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>8110512</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>4</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>8110513</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>81040965</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="14">
-        <v>6</v>
-      </c>
-      <c r="F13" s="14">
-        <v>14</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>89061018</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>7080323</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>3</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>3120520</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14">
-        <v>3</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>93020881</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>98070375</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="14">
-        <v>9</v>
-      </c>
-      <c r="F18" s="14">
-        <v>13</v>
-      </c>
-      <c r="G18" s="14">
-        <v>2</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>83031686</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>13</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>96120545</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>95100823</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>10</v>
-      </c>
-      <c r="G21" s="14">
-        <v>3</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>5050356</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>13</v>
-      </c>
-      <c r="G22" s="14">
-        <v>3</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>6100227</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>8050141</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14">
-        <v>5</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>4030295</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>3100252</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>6110200</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>2</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
-        <v>1040728</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>9</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <v>673</v>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=4a702cd8-d80f-4617-bc1b-a1a5e51b8879" xr:uid="{927FF509-4BD8-4469-AB7C-007157E8C6BB}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=afff74b8-f5a1-4a56-8581-7d31d2dad92c" xr:uid="{15600134-D52C-4B02-9D89-4F960554A52C}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=7ff02e05-e290-4dcb-b120-7ec1935fc973" xr:uid="{F91828D8-A5AC-43AE-9829-43559B7B6BF0}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c5fd4867-5968-49d3-93c5-b6bda10be610" xr:uid="{5809D8FE-47D5-44F7-8778-59001EC8B22C}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=b0fabb78-9b73-423e-af5d-b3756a5e7fd6" xr:uid="{3DCF7D4A-9145-4A65-980D-A1C7574F3B35}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=396d586e-1b7c-4164-9450-ef22c78c6f8f" xr:uid="{654F8BAF-9308-4387-A04E-7D678642238E}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=d7ce12b1-c434-4c28-9311-0d29bf8b6030" xr:uid="{668DC4B0-40FD-471D-9D88-75E4393141A9}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=30b6865c-6877-4ad4-8d40-e2624433f91b" xr:uid="{073BB763-BB53-457F-A56F-2584B6F05EFF}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c3dc403d-cd43-4044-adec-01484fe4e7bf" xr:uid="{CDF1062F-1F75-4B9F-A999-FD7B0666FD2F}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=94366b14-1933-425c-92cf-2e73deef4b10" xr:uid="{C156AD2B-42A4-416A-845E-F35762714E6C}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=b6f0d7a3-0795-4d8f-872d-21e258c46e8f" xr:uid="{A7E20052-9D0D-4216-B0C9-3FC467173384}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=41632b61-32fa-4c5c-830a-a4d17cd1d47f" xr:uid="{DFDDFA89-F74C-4615-AE59-63A9D7D211B1}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=5b4c04c9-703d-4734-b116-499362adfcca" xr:uid="{ADB4B76C-AE4E-4325-ADAD-5F2E5B94F20B}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=11e39ea9-915e-4fb8-859c-9c7318522e49" xr:uid="{05FD70A6-4084-431E-9FFB-2807952D29DD}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c67a0f9f-fb5b-464f-9b1d-96771b27bfa1" xr:uid="{5483BC6B-E3D0-409C-8623-9355EBBDE970}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=0d5be422-b2e2-48ce-b08e-942453c653eb" xr:uid="{85B2D098-D4C7-44D7-9CBF-EDB4E8A32304}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=e72c483b-e47d-4c72-afb0-4539ed5097d2" xr:uid="{4938062A-A6E5-4385-9323-F13ACA289FC9}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c42ec22f-4c46-4004-8734-2e402c239211" xr:uid="{EE88AB12-8268-4E75-BFE1-40F82B927E82}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=dcdac96d-05e9-48c0-bf4e-17bd69a31f0e" xr:uid="{02DCACC7-CBFA-4529-82A0-A66FD5DE0A9E}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=3870c947-e81e-474b-bc88-465782cbf173" xr:uid="{85E169C8-FBA7-487A-9AC4-4618DCD91216}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=404fb0a9-38d4-4d95-84fa-2f17285b97da" xr:uid="{D606F3E6-D111-407D-B791-4A118B128760}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=8552fe7f-e3fd-407b-8f89-d7cfc03ee882" xr:uid="{68FA3257-E709-4A1B-9DDF-F82B7FE0D913}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=09f38f8f-0eb7-4232-907f-de64f95f6839" xr:uid="{29A50D03-0577-497D-9B00-05C2E709E86E}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=3a1e5348-c3e5-4c09-8a67-45ab06b2b8f5" xr:uid="{D989FA51-FBEE-4A1D-B767-A143ABD0390E}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=66b3e702-d6a4-4e2f-a2a6-d6dbc0d88c22" xr:uid="{FF2B0D7B-38D6-47B3-AF84-CCBC7391F143}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=ed6231bb-ece5-4841-9e03-60a83e018155" xr:uid="{9DB32155-0E8B-46FC-835C-9919CD4B4BCE}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=c5d2d137-e709-4072-838e-ff1159d2be25" xr:uid="{074A317B-1F05-44C4-8580-E573710DC4A4}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://is1.fotbal.cz/hraci/informace-o-hraci.aspx?req=0279a281-5037-440c-8dee-5555baf48c08" xr:uid="{FE74F891-73D1-43B4-8FC4-3C70DB3B6038}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2977,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A36:A37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,12 +3420,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+      <c r="A1" s="17">
         <v>1660</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -3286,7 +3446,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3316,7 +3476,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3580,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3588,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3500,12 +3660,12 @@
         <v>96</v>
       </c>
       <c r="B26" s="4">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B27" s="4">
         <v>200</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591216C0-8072-4DB5-83B3-E53F44EA1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E1790-F2A7-4471-AAD8-2157B76F66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
@@ -777,9 +777,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -787,6 +784,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12498C-3337-41CF-B423-01B5BE79ACA0}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:K30"/>
     </sheetView>
   </sheetViews>
@@ -2284,11 +2284,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2375,7 +2375,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2433,7 +2433,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2462,7 +2462,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2549,7 +2549,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2607,7 +2607,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2665,7 +2665,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2694,7 +2694,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2723,7 +2723,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2781,7 +2781,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2868,7 +2868,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -2897,7 +2897,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2926,7 +2926,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3042,7 +3042,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B29" t="s">
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,12 +3420,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>1660</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="20">
+        <v>3671</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -3445,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3468,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="4">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="4">
-        <v>230</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3508,7 +3508,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3516,7 +3516,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3524,7 +3524,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3564,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="4">
-        <v>-100</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3588,7 +3588,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="4">
-        <v>70</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3596,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3620,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3636,7 +3636,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3668,7 +3668,7 @@
         <v>175</v>
       </c>
       <c r="B27" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E1790-F2A7-4471-AAD8-2157B76F66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9F0F1-1C38-49A0-8692-EEEBEEFFB894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sestava" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="188">
   <si>
     <t>Konflikt</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>96120545</t>
+  </si>
+  <si>
+    <t>cca 4000KČ</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -723,13 +726,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBCC9D5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,6 +798,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1072,7 +1090,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,15 +1162,15 @@
       </c>
       <c r="G2" s="1">
         <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,5,0),"-")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,6,0),"-")</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1">
         <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,7,0),"-")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1">
         <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,8,0),"-")</f>
@@ -1160,7 +1178,7 @@
       </c>
       <c r="K2" s="1">
         <f>IFERROR( VLOOKUP(A2,Sheet1!A:I,9,0),"-")</f>
-        <v>1440</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,7 +1206,7 @@
       </c>
       <c r="H3" s="1">
         <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,6,0),"-")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,7,0),"-")</f>
@@ -1200,7 +1218,7 @@
       </c>
       <c r="K3" s="1">
         <f>IFERROR( VLOOKUP(A3,Sheet1!A:I,9,0),"-")</f>
-        <v>1563</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1228,7 +1246,7 @@
       </c>
       <c r="H4" s="1">
         <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,6,0),"-")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,7,0),"-")</f>
@@ -1240,7 +1258,7 @@
       </c>
       <c r="K4" s="1">
         <f>IFERROR( VLOOKUP(A4,Sheet1!A:I,9,0),"-")</f>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1268,7 +1286,7 @@
       </c>
       <c r="H5" s="1">
         <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,6,0),"-")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,7,0),"-")</f>
@@ -1280,7 +1298,7 @@
       </c>
       <c r="K5" s="1">
         <f>IFERROR( VLOOKUP(A5,Sheet1!A:I,9,0),"-")</f>
-        <v>229</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1304,11 +1322,11 @@
       </c>
       <c r="G6" s="1">
         <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,5,0),"-")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,6,0),"-")</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1">
         <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,7,0),"-")</f>
@@ -1320,7 +1338,7 @@
       </c>
       <c r="K6" s="1">
         <f>IFERROR( VLOOKUP(A6,Sheet1!A:I,9,0),"-")</f>
-        <v>1000</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1344,11 +1362,11 @@
       </c>
       <c r="G7" s="1">
         <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,5,0),"-")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,6,0),"-")</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,7,0),"-")</f>
@@ -1360,7 +1378,7 @@
       </c>
       <c r="K7" s="1">
         <f>IFERROR( VLOOKUP(A7,Sheet1!A:I,9,0),"-")</f>
-        <v>449</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1388,7 +1406,7 @@
       </c>
       <c r="H8" s="1">
         <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,6,0),"-")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,7,0),"-")</f>
@@ -1400,7 +1418,7 @@
       </c>
       <c r="K8" s="1">
         <f>IFERROR( VLOOKUP(A8,Sheet1!A:I,9,0),"-")</f>
-        <v>849</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1424,11 +1442,11 @@
       </c>
       <c r="G9" s="1">
         <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,5,0),"-")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,6,0),"-")</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,7,0),"-")</f>
@@ -1440,7 +1458,7 @@
       </c>
       <c r="K9" s="1">
         <f>IFERROR( VLOOKUP(A9,Sheet1!A:I,9,0),"-")</f>
-        <v>1027</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1464,11 +1482,11 @@
       </c>
       <c r="G10" s="1">
         <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,5,0),"-")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,6,0),"-")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1">
         <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,7,0),"-")</f>
@@ -1480,7 +1498,7 @@
       </c>
       <c r="K10" s="1">
         <f>IFERROR( VLOOKUP(A10,Sheet1!A:I,9,0),"-")</f>
-        <v>1167</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1508,7 +1526,7 @@
       </c>
       <c r="H11" s="1">
         <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,6,0),"-")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,7,0),"-")</f>
@@ -1520,7 +1538,7 @@
       </c>
       <c r="K11" s="1">
         <f>IFERROR( VLOOKUP(A11,Sheet1!A:I,9,0),"-")</f>
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1548,7 +1566,7 @@
       </c>
       <c r="H12" s="1">
         <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,6,0),"-")</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1">
         <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,7,0),"-")</f>
@@ -1560,7 +1578,7 @@
       </c>
       <c r="K12" s="1">
         <f>IFERROR( VLOOKUP(A12,Sheet1!A:I,9,0),"-")</f>
-        <v>232</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1624,15 +1642,15 @@
       </c>
       <c r="G14" s="1">
         <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,5,0),"-")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,6,0),"-")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1">
         <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,7,0),"-")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
         <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,8,0),"-")</f>
@@ -1640,7 +1658,7 @@
       </c>
       <c r="K14" s="1">
         <f>IFERROR( VLOOKUP(A14,Sheet1!A:I,9,0),"-")</f>
-        <v>1454</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1668,7 +1686,7 @@
       </c>
       <c r="H15" s="1">
         <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,6,0),"-")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1">
         <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,7,0),"-")</f>
@@ -1680,7 +1698,7 @@
       </c>
       <c r="K15" s="1">
         <f>IFERROR( VLOOKUP(A15,Sheet1!A:I,9,0),"-")</f>
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1704,23 +1722,23 @@
       </c>
       <c r="G16" s="1">
         <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,5,0),"-")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,6,0),"-")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1">
         <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,7,0),"-")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1">
         <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,8,0),"-")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <f>IFERROR( VLOOKUP(A16,Sheet1!A:I,9,0),"-")</f>
-        <v>1137</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1748,7 +1766,7 @@
       </c>
       <c r="H17" s="1">
         <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,6,0),"-")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
         <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,7,0),"-")</f>
@@ -1760,7 +1778,7 @@
       </c>
       <c r="K17" s="1">
         <f>IFERROR( VLOOKUP(A17,Sheet1!A:I,9,0),"-")</f>
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1784,11 +1802,11 @@
       </c>
       <c r="G18" s="1">
         <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,5,0),"-")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
         <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,6,0),"-")</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1">
         <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,7,0),"-")</f>
@@ -1800,7 +1818,7 @@
       </c>
       <c r="K18" s="1">
         <f>IFERROR( VLOOKUP(A18,Sheet1!A:I,9,0),"-")</f>
-        <v>1234</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1828,7 +1846,7 @@
       </c>
       <c r="H19" s="1">
         <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,6,0),"-")</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1">
         <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,7,0),"-")</f>
@@ -1840,7 +1858,7 @@
       </c>
       <c r="K19" s="1">
         <f>IFERROR( VLOOKUP(A19,Sheet1!A:I,9,0),"-")</f>
-        <v>1334</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1948,19 +1966,19 @@
       </c>
       <c r="H22" s="1">
         <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,6,0),"-")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I22" s="1">
         <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,7,0),"-")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
         <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,8,0),"-")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
         <f>IFERROR( VLOOKUP(A22,Sheet1!A:I,9,0),"-")</f>
-        <v>1216</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2022,7 +2040,7 @@
       </c>
       <c r="H24" s="1">
         <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,6,0),"-")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1">
         <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,7,0),"-")</f>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="K24" s="1">
         <f>IFERROR( VLOOKUP(A24,Sheet1!A:I,9,0),"-")</f>
-        <v>142</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2136,7 +2154,7 @@
       </c>
       <c r="H27" s="1">
         <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,6,0),"-")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
         <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,7,0),"-")</f>
@@ -2148,7 +2166,7 @@
       </c>
       <c r="K27" s="1">
         <f>IFERROR( VLOOKUP(A27,Sheet1!A:I,9,0),"-")</f>
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,15 +2190,15 @@
       </c>
       <c r="G28" s="1">
         <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,5,0),"-")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,6,0),"-")</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1">
         <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,7,0),"-")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1">
         <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,8,0),"-")</f>
@@ -2188,7 +2206,7 @@
       </c>
       <c r="K28" s="1">
         <f>IFERROR( VLOOKUP(A28,Sheet1!A:I,9,0),"-")</f>
-        <v>810</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2212,15 +2230,15 @@
       </c>
       <c r="G29" s="1">
         <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,5,0),"-")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,6,0),"-")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
         <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,7,0),"-")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,8,0),"-")</f>
@@ -2228,7 +2246,7 @@
       </c>
       <c r="K29" s="1">
         <f>IFERROR( VLOOKUP(A29,Sheet1!A:I,9,0),"-")</f>
-        <v>174</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2278,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D3959C-125B-43A5-B780-4E72F542F120}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,19 +2348,19 @@
         <v>134</v>
       </c>
       <c r="E2" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>1440</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2362,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="12">
         <v>3</v>
@@ -2371,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <v>1563</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2391,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -2400,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -2429,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="13">
-        <v>229</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2446,10 +2464,10 @@
         <v>134</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" s="12">
         <v>2</v>
@@ -2458,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13">
-        <v>1000</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2475,10 +2493,10 @@
         <v>134</v>
       </c>
       <c r="E7" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
@@ -2487,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <v>449</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2507,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -2516,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <v>849</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2533,10 +2551,10 @@
         <v>134</v>
       </c>
       <c r="E9" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
@@ -2545,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>1027</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2562,10 +2580,10 @@
         <v>134</v>
       </c>
       <c r="E10" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
@@ -2574,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>1167</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2594,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2603,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2623,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
@@ -2632,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>232</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2678,19 +2696,19 @@
         <v>134</v>
       </c>
       <c r="E14" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G14" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>1454</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2707,19 +2725,19 @@
         <v>134</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>174</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" s="12">
         <v>0</v>
@@ -2748,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2765,19 +2783,19 @@
         <v>134</v>
       </c>
       <c r="E17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G17" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="13">
-        <v>1137</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2797,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -2806,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2823,10 +2841,10 @@
         <v>134</v>
       </c>
       <c r="E19" s="12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F19" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19" s="12">
         <v>3</v>
@@ -2835,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>1234</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2855,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
@@ -2864,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>1334</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2942,16 +2960,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G23" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="13">
-        <v>1216</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3000,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="12">
         <v>0</v>
@@ -3009,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>142</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3087,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -3096,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3113,19 +3131,19 @@
         <v>134</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>810</v>
+        <v>3</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -3137,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,15 +3431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677003C-29EC-4961-822C-3C1534E5601A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20">
-        <v>3671</v>
+      <c r="A1" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3443,10 +3461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3486,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="4">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3494,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="4">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,7 +3502,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3510,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="4">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3500,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="4">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3508,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3516,7 +3534,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="4">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3524,7 +3542,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3532,7 +3550,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>290</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3540,7 +3558,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3548,7 +3566,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3582,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="4">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3572,7 +3590,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="4">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3580,7 +3598,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3588,7 +3606,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="4">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3614,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="4">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3604,7 +3622,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="4">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3612,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="4">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3646,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="4">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3636,7 +3654,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="4">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3660,12 +3678,12 @@
         <v>96</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -3673,17 +3691,9 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="4">
         <v>0</v>
       </c>
     </row>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejvi\OneDrive\Documents\GitHub\SK-Chroustovice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9F0F1-1C38-49A0-8692-EEEBEEFFB894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45BBF9-77EF-484E-9950-5B84BF1FF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,14 +796,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3139,10 +3139,10 @@
       <c r="G29">
         <v>3</v>
       </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="H29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
         <v>1340</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C08A-B865-4B83-9B5A-048D91606EFA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3438,12 +3438,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -3463,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE71711-960C-4441-996C-F8266179135A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3526,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="4">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
